--- a/testdata/Test.xlsx
+++ b/testdata/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenchyzhu/Github/tableau/cmd/test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055CC890-E12B-384C-8700-28175E3B8A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B44217-563C-2E4C-AF4C-5C23FF134BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="880" windowWidth="28800" windowHeight="13740" activeTab="2" xr2:uid="{789FF568-E43D-DA4B-9C6E-0C49405D287E}"/>
+    <workbookView xWindow="-1060" yWindow="3180" windowWidth="28800" windowHeight="13740" xr2:uid="{789FF568-E43D-DA4B-9C6E-0C49405D287E}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>道具ID</t>
   </si>
@@ -206,18 +206,6 @@
     <t>强化1描述3</t>
   </si>
   <si>
-    <t>属性1类型</t>
-  </si>
-  <si>
-    <t>属性1数量</t>
-  </si>
-  <si>
-    <t>属性2类型</t>
-  </si>
-  <si>
-    <t>属性2数量</t>
-  </si>
-  <si>
     <t>售卖选项</t>
   </si>
   <si>
@@ -264,6 +252,24 @@
   </si>
   <si>
     <t>15.246879</t>
+  </si>
+  <si>
+    <t>属性1抑制1类型</t>
+  </si>
+  <si>
+    <t>属性1抑制1数量</t>
+  </si>
+  <si>
+    <t>属性1抑制2类型</t>
+  </si>
+  <si>
+    <t>属性1抑制2数量</t>
+  </si>
+  <si>
+    <t>属性2抑制1类型</t>
+  </si>
+  <si>
+    <t>属性2抑制1数量</t>
   </si>
 </sst>
 </file>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D8C8FD-A524-2A42-B4E6-70BAC4C065B6}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,20 +656,24 @@
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="6" max="8" width="14.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
-    <col min="14" max="15" width="14.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="24.5" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.1640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.83203125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="19.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="12.5" style="2" customWidth="1"/>
+    <col min="16" max="17" width="14.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="24.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="20.83203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,46 +702,52 @@
         <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -766,40 +782,46 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
         <v>2002</v>
       </c>
-      <c r="M2" s="2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2">
         <v>11</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
         <v>5</v>
       </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -834,40 +856,46 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
         <v>2002</v>
       </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="2">
-        <v>2</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2">
         <v>6</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -902,36 +930,42 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>2002</v>
       </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>3</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>7</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1194,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788C4DC7-4113-0642-9BB8-FA63AD1AD680}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1206,7 +1240,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1214,7 +1248,7 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -1222,7 +1256,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1233,39 +1267,39 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
